--- a/Solution/FilesEditor.Tests/TestFiles/DataSourceFolder/DataSource.xlsx
+++ b/Solution/FilesEditor.Tests/TestFiles/DataSourceFolder/DataSource.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Data\Lefo\Dev\3 GDPptGenerator\Solution\PptGeneratorGUI\DataSourceFolder\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C524E5C4-5875-452D-8DF2-BFDAE6B2DC4E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{557D1C57-9055-46A5-B5E8-A89F5CAB84D6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21120" tabRatio="774" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -17,7 +17,7 @@
     <sheet name="Budget" sheetId="3" r:id="rId2"/>
     <sheet name="Forecast" sheetId="4" r:id="rId3"/>
     <sheet name="RunRate" sheetId="5" r:id="rId4"/>
-    <sheet name="Superdettagli" sheetId="1" r:id="rId5"/>
+    <sheet name="Superdetails" sheetId="1" r:id="rId5"/>
     <sheet name="table_tabProjType" sheetId="8" r:id="rId6"/>
     <sheet name="table_tabProjTypeCluster" sheetId="9" r:id="rId7"/>
     <sheet name="table_CommonTable" sheetId="10" r:id="rId8"/>
@@ -39947,7 +39947,7 @@
   <dimension ref="A1:CL8"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="AD1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="AL9" sqref="AL9"/>
+      <selection activeCell="AH47" sqref="AH47"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>

--- a/Solution/FilesEditor.Tests/TestFiles/DataSourceFolder/DataSource.xlsx
+++ b/Solution/FilesEditor.Tests/TestFiles/DataSourceFolder/DataSource.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Data\Lefo\Dev\3 GDPptGenerator\Solution\PptGeneratorGUI\DataSourceFolder\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F7876DF5-A146-42D3-9FFB-0ED1E2C03580}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BBD9BEDB-628F-4A11-9D94-FB7F6A69EE26}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21120" tabRatio="774" activeTab="9" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21120" tabRatio="774" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Log" sheetId="33" r:id="rId1"/>
@@ -50,7 +50,7 @@
     <definedName name="mese">"10"</definedName>
     <definedName name="quarter">"Q4"</definedName>
   </definedNames>
-  <calcPr calcId="191029" iterateCount="1" calcOnSave="0" concurrentCalc="0"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -1276,9 +1276,6 @@
     <t>ANALISI RICHIESTE MINORI KIT+QUOT. TOB</t>
   </si>
   <si>
-    <t>K005.01001.TOB.01006</t>
-  </si>
-  <si>
     <t>5320326</t>
   </si>
   <si>
@@ -1331,9 +1328,6 @@
   </si>
   <si>
     <t>FATTIBILITA' DEL 2025 TOBACCO</t>
-  </si>
-  <si>
-    <t>K005.00012.PAC.99901</t>
   </si>
   <si>
     <t>5447634</t>
@@ -1575,6 +1569,12 @@
   </si>
   <si>
     <t>Data Uscita GD</t>
+  </si>
+  <si>
+    <t>Stay</t>
+  </si>
+  <si>
+    <t>Go</t>
   </si>
 </sst>
 </file>
@@ -7251,9 +7251,7 @@
     <tableColumn id="1" xr3:uid="{00000000-0010-0000-0300-000001000000}" name="da considerare?_" dataDxfId="30">
       <calculatedColumnFormula>IF(  UPPER(LEFT( tabSuperdettagli[[#This Row],[WBE Status]],1) ) = "S",  "sì",  "no"   )</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0300-000002000000}" name="Anno_" dataDxfId="29">
-      <calculatedColumnFormula>tabSuperdettagli[[#This Row],[Sender Cost Center2]]*1</calculatedColumnFormula>
-    </tableColumn>
+    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0300-000002000000}" name="Anno_" dataDxfId="29"/>
     <tableColumn id="3" xr3:uid="{00000000-0010-0000-0300-000003000000}" name="Anno di prima marcatura (=anno di apertura progetto)"/>
     <tableColumn id="4" xr3:uid="{00000000-0010-0000-0300-000004000000}" name="WBS_" dataDxfId="28">
       <calculatedColumnFormula>LEFT(tabSuperdettagli[[#This Row],[Network7]], 10)</calculatedColumnFormula>
@@ -7721,7 +7719,7 @@
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>440</v>
+        <v>438</v>
       </c>
       <c r="E1" t="s">
         <v>0</v>
@@ -7743,7 +7741,7 @@
         <v>45967</v>
       </c>
       <c r="B3" t="s">
-        <v>439</v>
+        <v>437</v>
       </c>
       <c r="E3" t="str">
         <f>quarter</f>
@@ -7770,7 +7768,7 @@
   </sheetPr>
   <dimension ref="A1:M82"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="N23" sqref="N23"/>
     </sheetView>
   </sheetViews>
@@ -7896,7 +7894,7 @@
         <v>133</v>
       </c>
       <c r="L5" t="s">
-        <v>436</v>
+        <v>434</v>
       </c>
       <c r="M5" s="64"/>
     </row>
@@ -7946,7 +7944,7 @@
         <v>123</v>
       </c>
       <c r="L7" t="s">
-        <v>436</v>
+        <v>434</v>
       </c>
       <c r="M7" s="64"/>
     </row>
@@ -7971,7 +7969,7 @@
         <v>118</v>
       </c>
       <c r="L8" t="s">
-        <v>443</v>
+        <v>441</v>
       </c>
       <c r="M8" s="64"/>
     </row>
@@ -7996,7 +7994,7 @@
         <v>118</v>
       </c>
       <c r="L9" t="s">
-        <v>444</v>
+        <v>442</v>
       </c>
       <c r="M9" s="64"/>
     </row>
@@ -8023,7 +8021,7 @@
         <v>118</v>
       </c>
       <c r="L10" t="s">
-        <v>460</v>
+        <v>458</v>
       </c>
       <c r="M10" s="64"/>
     </row>
@@ -9309,7 +9307,7 @@
   <sheetData>
     <row r="1" spans="1:2" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="130" t="s">
-        <v>428</v>
+        <v>426</v>
       </c>
       <c r="B1" s="131"/>
     </row>
@@ -9358,23 +9356,23 @@
         <v>163</v>
       </c>
       <c r="B7" s="79" t="s">
-        <v>433</v>
+        <v>431</v>
       </c>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A8" s="78" t="s">
-        <v>427</v>
+        <v>425</v>
       </c>
       <c r="B8" s="79" t="s">
-        <v>434</v>
+        <v>432</v>
       </c>
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A9" s="78" t="s">
-        <v>432</v>
+        <v>430</v>
       </c>
       <c r="B9" s="79" t="s">
-        <v>435</v>
+        <v>433</v>
       </c>
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.25">
@@ -9467,10 +9465,10 @@
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A3" s="78" t="s">
-        <v>437</v>
+        <v>435</v>
       </c>
       <c r="B3" s="79" t="s">
-        <v>438</v>
+        <v>436</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.25">
@@ -9510,15 +9508,15 @@
         <v>175</v>
       </c>
       <c r="B8" s="79" t="s">
-        <v>430</v>
+        <v>428</v>
       </c>
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A9" s="113" t="s">
+        <v>427</v>
+      </c>
+      <c r="B9" s="79" t="s">
         <v>429</v>
-      </c>
-      <c r="B9" s="79" t="s">
-        <v>431</v>
       </c>
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.25">
@@ -18797,7 +18795,7 @@
         <v>15</v>
       </c>
       <c r="K2" s="88" t="s">
-        <v>426</v>
+        <v>424</v>
       </c>
       <c r="L2" s="88" t="s">
         <v>16</v>
@@ -37098,7 +37096,7 @@
         <v>38</v>
       </c>
       <c r="P2" s="88" t="s">
-        <v>426</v>
+        <v>424</v>
       </c>
       <c r="Q2" s="88" t="s">
         <v>16</v>
@@ -39966,8 +39964,8 @@
   </sheetPr>
   <dimension ref="A1:CC8"/>
   <sheetViews>
-    <sheetView topLeftCell="AI1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="AY3" sqref="AY3"/>
+    <sheetView tabSelected="1" topLeftCell="AA1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="AI6" sqref="AI6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -40229,157 +40227,157 @@
         <v>76</v>
       </c>
       <c r="AE2" t="s">
+        <v>439</v>
+      </c>
+      <c r="AF2" t="s">
+        <v>440</v>
+      </c>
+      <c r="AG2" t="s">
         <v>441</v>
       </c>
-      <c r="AF2" t="s">
+      <c r="AH2" t="s">
         <v>442</v>
       </c>
-      <c r="AG2" t="s">
+      <c r="AI2" t="s">
         <v>443</v>
       </c>
-      <c r="AH2" t="s">
+      <c r="AJ2" t="s">
         <v>444</v>
       </c>
-      <c r="AI2" t="s">
+      <c r="AK2" t="s">
         <v>445</v>
       </c>
-      <c r="AJ2" t="s">
+      <c r="AL2" t="s">
         <v>446</v>
       </c>
-      <c r="AK2" t="s">
+      <c r="AM2" s="115" t="s">
         <v>447</v>
       </c>
-      <c r="AL2" t="s">
+      <c r="AN2" t="s">
         <v>448</v>
       </c>
-      <c r="AM2" s="115" t="s">
+      <c r="AO2" t="s">
         <v>449</v>
       </c>
-      <c r="AN2" t="s">
+      <c r="AP2" t="s">
         <v>450</v>
       </c>
-      <c r="AO2" t="s">
+      <c r="AQ2" t="s">
         <v>451</v>
       </c>
-      <c r="AP2" t="s">
+      <c r="AR2" t="s">
         <v>452</v>
       </c>
-      <c r="AQ2" t="s">
+      <c r="AS2" t="s">
         <v>453</v>
       </c>
-      <c r="AR2" t="s">
+      <c r="AT2" t="s">
         <v>454</v>
       </c>
-      <c r="AS2" t="s">
+      <c r="AU2" t="s">
         <v>455</v>
       </c>
-      <c r="AT2" t="s">
+      <c r="AV2" t="s">
         <v>456</v>
       </c>
-      <c r="AU2" t="s">
+      <c r="AW2" t="s">
         <v>457</v>
       </c>
-      <c r="AV2" t="s">
+      <c r="AX2" t="s">
         <v>458</v>
       </c>
-      <c r="AW2" t="s">
+      <c r="AY2" t="s">
         <v>459</v>
       </c>
-      <c r="AX2" t="s">
+      <c r="AZ2" s="116" t="s">
         <v>460</v>
       </c>
-      <c r="AY2" t="s">
+      <c r="BA2" t="s">
         <v>461</v>
       </c>
-      <c r="AZ2" s="116" t="s">
+      <c r="BB2" t="s">
         <v>462</v>
       </c>
-      <c r="BA2" t="s">
+      <c r="BC2" t="s">
         <v>463</v>
       </c>
-      <c r="BB2" t="s">
+      <c r="BD2" t="s">
         <v>464</v>
       </c>
-      <c r="BC2" t="s">
+      <c r="BE2" t="s">
         <v>465</v>
       </c>
-      <c r="BD2" t="s">
+      <c r="BF2" s="116" t="s">
         <v>466</v>
       </c>
-      <c r="BE2" t="s">
+      <c r="BG2" t="s">
         <v>467</v>
       </c>
-      <c r="BF2" s="116" t="s">
+      <c r="BH2" t="s">
         <v>468</v>
       </c>
-      <c r="BG2" t="s">
+      <c r="BI2" t="s">
         <v>469</v>
       </c>
-      <c r="BH2" t="s">
+      <c r="BJ2" s="117" t="s">
         <v>470</v>
       </c>
-      <c r="BI2" t="s">
+      <c r="BK2" s="117" t="s">
         <v>471</v>
       </c>
-      <c r="BJ2" s="117" t="s">
+      <c r="BL2" s="117" t="s">
         <v>472</v>
       </c>
-      <c r="BK2" s="117" t="s">
+      <c r="BM2" s="117" t="s">
         <v>473</v>
       </c>
-      <c r="BL2" s="117" t="s">
+      <c r="BN2" s="117" t="s">
         <v>474</v>
       </c>
-      <c r="BM2" s="117" t="s">
+      <c r="BO2" s="117" t="s">
         <v>475</v>
       </c>
-      <c r="BN2" s="117" t="s">
+      <c r="BP2" s="117" t="s">
         <v>476</v>
       </c>
-      <c r="BO2" s="117" t="s">
+      <c r="BQ2" s="117" t="s">
         <v>477</v>
       </c>
-      <c r="BP2" s="117" t="s">
+      <c r="BR2" t="s">
         <v>478</v>
       </c>
-      <c r="BQ2" s="117" t="s">
+      <c r="BS2" t="s">
         <v>479</v>
       </c>
-      <c r="BR2" t="s">
+      <c r="BT2" t="s">
         <v>480</v>
       </c>
-      <c r="BS2" t="s">
+      <c r="BU2" t="s">
         <v>481</v>
       </c>
-      <c r="BT2" t="s">
+      <c r="BV2" t="s">
         <v>482</v>
       </c>
-      <c r="BU2" t="s">
+      <c r="BW2" t="s">
         <v>483</v>
       </c>
-      <c r="BV2" t="s">
+      <c r="BX2" t="s">
         <v>484</v>
       </c>
-      <c r="BW2" t="s">
+      <c r="BY2" t="s">
         <v>485</v>
       </c>
-      <c r="BX2" t="s">
+      <c r="BZ2" t="s">
         <v>486</v>
       </c>
-      <c r="BY2" t="s">
+      <c r="CA2" t="s">
         <v>487</v>
       </c>
-      <c r="BZ2" t="s">
+      <c r="CB2" s="118" t="s">
         <v>488</v>
       </c>
-      <c r="CA2" t="s">
+      <c r="CC2" s="118" t="s">
         <v>489</v>
-      </c>
-      <c r="CB2" s="118" t="s">
-        <v>490</v>
-      </c>
-      <c r="CC2" s="118" t="s">
-        <v>491</v>
       </c>
     </row>
     <row r="3" spans="1:81" x14ac:dyDescent="0.25">
@@ -40388,10 +40386,10 @@
         <v>no</v>
       </c>
       <c r="B3">
-        <v>2020</v>
+        <v>2022</v>
       </c>
       <c r="C3">
-        <v>2025</v>
+        <v>2021</v>
       </c>
       <c r="D3" t="str">
         <f>LEFT(tabSuperdettagli[[#This Row],[Network7]],10)</f>
@@ -40483,7 +40481,7 @@
       </c>
       <c r="Z3" t="str">
         <f>tabSuperdettagli[[#This Row],[WBS Element6]]&amp;""</f>
-        <v>K005.01001.TOB.01006</v>
+        <v>Stay</v>
       </c>
       <c r="AA3" t="str">
         <f>tabSuperdettagli[[#This Row],[09.AAAA]]</f>
@@ -40507,37 +40505,37 @@
         <v>390</v>
       </c>
       <c r="AG3" t="s">
-        <v>99</v>
+        <v>87</v>
       </c>
       <c r="AH3" t="s">
         <v>391</v>
       </c>
       <c r="AI3" t="s">
+        <v>490</v>
+      </c>
+      <c r="AJ3" t="s">
         <v>392</v>
-      </c>
-      <c r="AJ3" t="s">
-        <v>393</v>
       </c>
       <c r="AK3">
         <v>2023</v>
       </c>
       <c r="AL3" t="s">
+        <v>393</v>
+      </c>
+      <c r="AM3" t="s">
         <v>394</v>
       </c>
-      <c r="AM3" t="s">
+      <c r="AN3" t="s">
         <v>395</v>
       </c>
-      <c r="AN3" t="s">
+      <c r="AO3" t="s">
         <v>396</v>
       </c>
-      <c r="AO3" t="s">
+      <c r="AP3" t="s">
         <v>397</v>
       </c>
-      <c r="AP3" t="s">
+      <c r="AQ3" t="s">
         <v>398</v>
-      </c>
-      <c r="AQ3" t="s">
-        <v>399</v>
       </c>
       <c r="AR3" t="s">
         <v>83</v>
@@ -40546,7 +40544,7 @@
         <v>84</v>
       </c>
       <c r="AT3" t="s">
-        <v>400</v>
+        <v>399</v>
       </c>
       <c r="AU3" t="s">
         <v>39</v>
@@ -40561,16 +40559,16 @@
         <v>391</v>
       </c>
       <c r="AY3" t="s">
+        <v>400</v>
+      </c>
+      <c r="AZ3" t="s">
         <v>401</v>
       </c>
-      <c r="AZ3" t="s">
+      <c r="BA3" t="s">
         <v>402</v>
       </c>
-      <c r="BA3" t="s">
+      <c r="BB3" t="s">
         <v>403</v>
-      </c>
-      <c r="BB3" t="s">
-        <v>404</v>
       </c>
       <c r="BC3">
         <v>0</v>
@@ -40615,10 +40613,10 @@
         <v>49</v>
       </c>
       <c r="BQ3" t="s">
+        <v>404</v>
+      </c>
+      <c r="BR3" t="s">
         <v>405</v>
-      </c>
-      <c r="BR3" t="s">
-        <v>406</v>
       </c>
       <c r="BS3" t="s">
         <v>83</v>
@@ -40627,10 +40625,10 @@
         <v>189</v>
       </c>
       <c r="BU3" t="s">
+        <v>406</v>
+      </c>
+      <c r="BV3" t="s">
         <v>407</v>
-      </c>
-      <c r="BV3" t="s">
-        <v>408</v>
       </c>
       <c r="BW3" t="s">
         <v>79</v>
@@ -40642,7 +40640,7 @@
         <v>88</v>
       </c>
       <c r="CB3" t="s">
-        <v>409</v>
+        <v>408</v>
       </c>
     </row>
     <row r="4" spans="1:81" x14ac:dyDescent="0.25">
@@ -40651,10 +40649,10 @@
         <v>no</v>
       </c>
       <c r="B4">
-        <v>2021</v>
+        <v>2023</v>
       </c>
       <c r="C4">
-        <v>2025</v>
+        <v>2022</v>
       </c>
       <c r="D4" t="str">
         <f>LEFT(tabSuperdettagli[[#This Row],[Network7]],10)</f>
@@ -40746,7 +40744,7 @@
       </c>
       <c r="Z4" t="str">
         <f>tabSuperdettagli[[#This Row],[WBS Element6]]&amp;""</f>
-        <v>K005.00012.PAC.99901</v>
+        <v>Stay</v>
       </c>
       <c r="AA4" t="str">
         <f>tabSuperdettagli[[#This Row],[09.AAAA]]</f>
@@ -40770,40 +40768,40 @@
         <v>81</v>
       </c>
       <c r="AG4" t="s">
-        <v>87</v>
+        <v>96</v>
       </c>
       <c r="AH4" t="s">
+        <v>409</v>
+      </c>
+      <c r="AI4" t="s">
+        <v>490</v>
+      </c>
+      <c r="AJ4" t="s">
         <v>410</v>
-      </c>
-      <c r="AI4" t="s">
-        <v>411</v>
-      </c>
-      <c r="AJ4" t="s">
-        <v>412</v>
       </c>
       <c r="AK4">
         <v>2023</v>
       </c>
       <c r="AL4" t="s">
-        <v>413</v>
+        <v>411</v>
       </c>
       <c r="AM4" t="s">
-        <v>414</v>
+        <v>412</v>
       </c>
       <c r="AN4" t="s">
-        <v>396</v>
+        <v>395</v>
       </c>
       <c r="AO4" t="s">
         <v>82</v>
       </c>
       <c r="AP4" t="s">
+        <v>413</v>
+      </c>
+      <c r="AQ4" t="s">
+        <v>414</v>
+      </c>
+      <c r="AR4" t="s">
         <v>415</v>
-      </c>
-      <c r="AQ4" t="s">
-        <v>416</v>
-      </c>
-      <c r="AR4" t="s">
-        <v>417</v>
       </c>
       <c r="AS4" t="s">
         <v>84</v>
@@ -40821,16 +40819,16 @@
         <v>189</v>
       </c>
       <c r="AX4" t="s">
-        <v>410</v>
+        <v>409</v>
       </c>
       <c r="AY4" t="s">
+        <v>416</v>
+      </c>
+      <c r="AZ4" t="s">
+        <v>417</v>
+      </c>
+      <c r="BA4" t="s">
         <v>418</v>
-      </c>
-      <c r="AZ4" t="s">
-        <v>419</v>
-      </c>
-      <c r="BA4" t="s">
-        <v>420</v>
       </c>
       <c r="BB4" t="s">
         <v>89</v>
@@ -40878,22 +40876,22 @@
         <v>49</v>
       </c>
       <c r="BQ4" t="s">
-        <v>421</v>
+        <v>419</v>
       </c>
       <c r="BR4" t="s">
         <v>357</v>
       </c>
       <c r="BS4" t="s">
-        <v>417</v>
+        <v>415</v>
       </c>
       <c r="BT4" t="s">
         <v>189</v>
       </c>
       <c r="BU4" t="s">
-        <v>422</v>
+        <v>420</v>
       </c>
       <c r="BV4" t="s">
-        <v>408</v>
+        <v>407</v>
       </c>
       <c r="BW4" t="s">
         <v>79</v>
@@ -40902,7 +40900,7 @@
         <v>79</v>
       </c>
       <c r="BZ4" t="s">
-        <v>423</v>
+        <v>421</v>
       </c>
       <c r="CB4" t="s">
         <v>79</v>
@@ -40914,10 +40912,10 @@
         <v>no</v>
       </c>
       <c r="B5">
-        <v>2022</v>
+        <v>2024</v>
       </c>
       <c r="C5">
-        <v>2025</v>
+        <v>2023</v>
       </c>
       <c r="D5" t="str">
         <f>LEFT(tabSuperdettagli[[#This Row],[Network7]],10)</f>
@@ -41009,7 +41007,7 @@
       </c>
       <c r="Z5" t="str">
         <f>tabSuperdettagli[[#This Row],[WBS Element6]]&amp;""</f>
-        <v>K005.00012.PAC.99901</v>
+        <v>Stay</v>
       </c>
       <c r="AA5" t="str">
         <f>tabSuperdettagli[[#This Row],[09.AAAA]]</f>
@@ -41030,43 +41028,43 @@
         <v>80</v>
       </c>
       <c r="AF5" t="s">
-        <v>424</v>
+        <v>422</v>
       </c>
       <c r="AG5" t="s">
-        <v>96</v>
+        <v>99</v>
       </c>
       <c r="AH5" t="s">
+        <v>409</v>
+      </c>
+      <c r="AI5" t="s">
+        <v>490</v>
+      </c>
+      <c r="AJ5" t="s">
         <v>410</v>
-      </c>
-      <c r="AI5" t="s">
-        <v>411</v>
-      </c>
-      <c r="AJ5" t="s">
-        <v>412</v>
       </c>
       <c r="AK5">
         <v>2024</v>
       </c>
       <c r="AL5" t="s">
+        <v>411</v>
+      </c>
+      <c r="AM5" t="s">
+        <v>412</v>
+      </c>
+      <c r="AN5" t="s">
+        <v>395</v>
+      </c>
+      <c r="AO5" t="s">
+        <v>396</v>
+      </c>
+      <c r="AP5" t="s">
         <v>413</v>
       </c>
-      <c r="AM5" t="s">
+      <c r="AQ5" t="s">
         <v>414</v>
       </c>
-      <c r="AN5" t="s">
-        <v>396</v>
-      </c>
-      <c r="AO5" t="s">
-        <v>397</v>
-      </c>
-      <c r="AP5" t="s">
+      <c r="AR5" t="s">
         <v>415</v>
-      </c>
-      <c r="AQ5" t="s">
-        <v>416</v>
-      </c>
-      <c r="AR5" t="s">
-        <v>417</v>
       </c>
       <c r="AS5" t="s">
         <v>84</v>
@@ -41084,16 +41082,16 @@
         <v>189</v>
       </c>
       <c r="AX5" t="s">
-        <v>410</v>
+        <v>409</v>
       </c>
       <c r="AY5" t="s">
+        <v>416</v>
+      </c>
+      <c r="AZ5" t="s">
+        <v>417</v>
+      </c>
+      <c r="BA5" t="s">
         <v>418</v>
-      </c>
-      <c r="AZ5" t="s">
-        <v>419</v>
-      </c>
-      <c r="BA5" t="s">
-        <v>420</v>
       </c>
       <c r="BB5" t="s">
         <v>89</v>
@@ -41141,22 +41139,22 @@
         <v>49</v>
       </c>
       <c r="BQ5" t="s">
-        <v>421</v>
+        <v>419</v>
       </c>
       <c r="BR5" t="s">
         <v>357</v>
       </c>
       <c r="BS5" t="s">
-        <v>417</v>
+        <v>415</v>
       </c>
       <c r="BT5" t="s">
         <v>189</v>
       </c>
       <c r="BU5" t="s">
-        <v>422</v>
+        <v>420</v>
       </c>
       <c r="BV5" t="s">
-        <v>408</v>
+        <v>407</v>
       </c>
       <c r="BW5" t="s">
         <v>79</v>
@@ -41165,7 +41163,7 @@
         <v>79</v>
       </c>
       <c r="BZ5" t="s">
-        <v>423</v>
+        <v>421</v>
       </c>
       <c r="CB5" t="s">
         <v>79</v>
@@ -41177,10 +41175,10 @@
         <v>no</v>
       </c>
       <c r="B6">
-        <v>2023</v>
+        <v>2025</v>
       </c>
       <c r="C6">
-        <v>2025</v>
+        <v>2024</v>
       </c>
       <c r="D6" t="str">
         <f>LEFT(tabSuperdettagli[[#This Row],[Network7]],10)</f>
@@ -41272,7 +41270,7 @@
       </c>
       <c r="Z6" t="str">
         <f>tabSuperdettagli[[#This Row],[WBS Element6]]&amp;""</f>
-        <v>K005.00012.PAC.99901</v>
+        <v>Go</v>
       </c>
       <c r="AA6" t="str">
         <f>tabSuperdettagli[[#This Row],[09.AAAA]]</f>
@@ -41299,37 +41297,37 @@
         <v>100</v>
       </c>
       <c r="AH6" t="s">
+        <v>409</v>
+      </c>
+      <c r="AI6" t="s">
+        <v>491</v>
+      </c>
+      <c r="AJ6" t="s">
         <v>410</v>
-      </c>
-      <c r="AI6" t="s">
-        <v>411</v>
-      </c>
-      <c r="AJ6" t="s">
-        <v>412</v>
       </c>
       <c r="AK6">
         <v>2024</v>
       </c>
       <c r="AL6" t="s">
-        <v>413</v>
+        <v>411</v>
       </c>
       <c r="AM6" t="s">
-        <v>414</v>
+        <v>412</v>
       </c>
       <c r="AN6" t="s">
-        <v>396</v>
+        <v>395</v>
       </c>
       <c r="AO6" t="s">
         <v>82</v>
       </c>
       <c r="AP6" t="s">
+        <v>413</v>
+      </c>
+      <c r="AQ6" t="s">
+        <v>414</v>
+      </c>
+      <c r="AR6" t="s">
         <v>415</v>
-      </c>
-      <c r="AQ6" t="s">
-        <v>416</v>
-      </c>
-      <c r="AR6" t="s">
-        <v>417</v>
       </c>
       <c r="AS6" t="s">
         <v>84</v>
@@ -41347,16 +41345,16 @@
         <v>189</v>
       </c>
       <c r="AX6" t="s">
-        <v>410</v>
+        <v>409</v>
       </c>
       <c r="AY6" t="s">
+        <v>416</v>
+      </c>
+      <c r="AZ6" t="s">
+        <v>417</v>
+      </c>
+      <c r="BA6" t="s">
         <v>418</v>
-      </c>
-      <c r="AZ6" t="s">
-        <v>419</v>
-      </c>
-      <c r="BA6" t="s">
-        <v>420</v>
       </c>
       <c r="BB6" t="s">
         <v>89</v>
@@ -41404,22 +41402,22 @@
         <v>49</v>
       </c>
       <c r="BQ6" t="s">
-        <v>421</v>
+        <v>419</v>
       </c>
       <c r="BR6" t="s">
         <v>357</v>
       </c>
       <c r="BS6" t="s">
-        <v>417</v>
+        <v>415</v>
       </c>
       <c r="BT6" t="s">
         <v>189</v>
       </c>
       <c r="BU6" t="s">
-        <v>422</v>
+        <v>420</v>
       </c>
       <c r="BV6" t="s">
-        <v>408</v>
+        <v>407</v>
       </c>
       <c r="BW6" t="s">
         <v>79</v>
@@ -41428,7 +41426,7 @@
         <v>79</v>
       </c>
       <c r="BZ6" t="s">
-        <v>423</v>
+        <v>421</v>
       </c>
       <c r="CB6" t="s">
         <v>79</v>
@@ -41440,7 +41438,7 @@
         <v>no</v>
       </c>
       <c r="B7">
-        <v>2024</v>
+        <v>2025</v>
       </c>
       <c r="C7">
         <v>2025</v>
@@ -41535,7 +41533,7 @@
       </c>
       <c r="Z7" t="str">
         <f>tabSuperdettagli[[#This Row],[WBS Element6]]&amp;""</f>
-        <v>K005.00012.PAC.99901</v>
+        <v>Go</v>
       </c>
       <c r="AA7" t="str">
         <f>tabSuperdettagli[[#This Row],[09.AAAA]]</f>
@@ -41556,43 +41554,43 @@
         <v>80</v>
       </c>
       <c r="AF7" t="s">
-        <v>424</v>
+        <v>422</v>
       </c>
       <c r="AG7" t="s">
         <v>103</v>
       </c>
       <c r="AH7" t="s">
+        <v>409</v>
+      </c>
+      <c r="AI7" t="s">
+        <v>491</v>
+      </c>
+      <c r="AJ7" t="s">
         <v>410</v>
-      </c>
-      <c r="AI7" t="s">
-        <v>411</v>
-      </c>
-      <c r="AJ7" t="s">
-        <v>412</v>
       </c>
       <c r="AK7">
         <v>2025</v>
       </c>
       <c r="AL7" t="s">
+        <v>411</v>
+      </c>
+      <c r="AM7" t="s">
+        <v>412</v>
+      </c>
+      <c r="AN7" t="s">
+        <v>395</v>
+      </c>
+      <c r="AO7" t="s">
+        <v>396</v>
+      </c>
+      <c r="AP7" t="s">
         <v>413</v>
       </c>
-      <c r="AM7" t="s">
+      <c r="AQ7" t="s">
         <v>414</v>
       </c>
-      <c r="AN7" t="s">
-        <v>396</v>
-      </c>
-      <c r="AO7" t="s">
-        <v>397</v>
-      </c>
-      <c r="AP7" t="s">
+      <c r="AR7" t="s">
         <v>415</v>
-      </c>
-      <c r="AQ7" t="s">
-        <v>416</v>
-      </c>
-      <c r="AR7" t="s">
-        <v>417</v>
       </c>
       <c r="AS7" t="s">
         <v>84</v>
@@ -41610,16 +41608,16 @@
         <v>189</v>
       </c>
       <c r="AX7" t="s">
-        <v>410</v>
+        <v>409</v>
       </c>
       <c r="AY7" t="s">
+        <v>416</v>
+      </c>
+      <c r="AZ7" t="s">
+        <v>417</v>
+      </c>
+      <c r="BA7" t="s">
         <v>418</v>
-      </c>
-      <c r="AZ7" t="s">
-        <v>419</v>
-      </c>
-      <c r="BA7" t="s">
-        <v>420</v>
       </c>
       <c r="BB7" t="s">
         <v>89</v>
@@ -41667,22 +41665,22 @@
         <v>49</v>
       </c>
       <c r="BQ7" t="s">
-        <v>421</v>
+        <v>419</v>
       </c>
       <c r="BR7" t="s">
         <v>357</v>
       </c>
       <c r="BS7" t="s">
-        <v>417</v>
+        <v>415</v>
       </c>
       <c r="BT7" t="s">
         <v>189</v>
       </c>
       <c r="BU7" t="s">
-        <v>422</v>
+        <v>420</v>
       </c>
       <c r="BV7" t="s">
-        <v>408</v>
+        <v>407</v>
       </c>
       <c r="BW7" t="s">
         <v>79</v>
@@ -41691,7 +41689,7 @@
         <v>79</v>
       </c>
       <c r="BZ7" t="s">
-        <v>423</v>
+        <v>421</v>
       </c>
       <c r="CB7" t="s">
         <v>79</v>
@@ -41703,10 +41701,10 @@
         <v>no</v>
       </c>
       <c r="B8">
-        <v>2025</v>
+        <v>2026</v>
       </c>
       <c r="C8">
-        <v>2025</v>
+        <v>2026</v>
       </c>
       <c r="D8" t="str">
         <f>LEFT(tabSuperdettagli[[#This Row],[Network7]],10)</f>
@@ -41798,7 +41796,7 @@
       </c>
       <c r="Z8" t="str">
         <f>tabSuperdettagli[[#This Row],[WBS Element6]]&amp;""</f>
-        <v>K005.01001.TOB.01006</v>
+        <v>Stay</v>
       </c>
       <c r="AA8" t="str">
         <f>tabSuperdettagli[[#This Row],[09.AAAA]]</f>
@@ -41822,37 +41820,37 @@
         <v>390</v>
       </c>
       <c r="AG8" t="s">
-        <v>425</v>
+        <v>423</v>
       </c>
       <c r="AH8" t="s">
         <v>391</v>
       </c>
       <c r="AI8" t="s">
+        <v>490</v>
+      </c>
+      <c r="AJ8" t="s">
         <v>392</v>
-      </c>
-      <c r="AJ8" t="s">
-        <v>393</v>
       </c>
       <c r="AK8">
         <v>2025</v>
       </c>
       <c r="AL8" t="s">
+        <v>393</v>
+      </c>
+      <c r="AM8" t="s">
         <v>394</v>
       </c>
-      <c r="AM8" t="s">
+      <c r="AN8" t="s">
         <v>395</v>
       </c>
-      <c r="AN8" t="s">
+      <c r="AO8" t="s">
         <v>396</v>
       </c>
-      <c r="AO8" t="s">
+      <c r="AP8" t="s">
         <v>397</v>
       </c>
-      <c r="AP8" t="s">
+      <c r="AQ8" t="s">
         <v>398</v>
-      </c>
-      <c r="AQ8" t="s">
-        <v>399</v>
       </c>
       <c r="AR8" t="s">
         <v>83</v>
@@ -41861,7 +41859,7 @@
         <v>84</v>
       </c>
       <c r="AT8" t="s">
-        <v>400</v>
+        <v>399</v>
       </c>
       <c r="AU8" t="s">
         <v>39</v>
@@ -41876,16 +41874,16 @@
         <v>391</v>
       </c>
       <c r="AY8" t="s">
+        <v>400</v>
+      </c>
+      <c r="AZ8" t="s">
         <v>401</v>
       </c>
-      <c r="AZ8" t="s">
+      <c r="BA8" t="s">
         <v>402</v>
       </c>
-      <c r="BA8" t="s">
+      <c r="BB8" t="s">
         <v>403</v>
-      </c>
-      <c r="BB8" t="s">
-        <v>404</v>
       </c>
       <c r="BC8">
         <v>0</v>
@@ -41930,10 +41928,10 @@
         <v>49</v>
       </c>
       <c r="BQ8" t="s">
+        <v>404</v>
+      </c>
+      <c r="BR8" t="s">
         <v>405</v>
-      </c>
-      <c r="BR8" t="s">
-        <v>406</v>
       </c>
       <c r="BS8" t="s">
         <v>83</v>
@@ -41942,10 +41940,10 @@
         <v>189</v>
       </c>
       <c r="BU8" t="s">
+        <v>406</v>
+      </c>
+      <c r="BV8" t="s">
         <v>407</v>
-      </c>
-      <c r="BV8" t="s">
-        <v>408</v>
       </c>
       <c r="BW8" t="s">
         <v>79</v>
@@ -41957,7 +41955,7 @@
         <v>88</v>
       </c>
       <c r="CB8" t="s">
-        <v>409</v>
+        <v>408</v>
       </c>
     </row>
   </sheetData>
